--- a/src/attributions/attributions_ig_traj_192.xlsx
+++ b/src/attributions/attributions_ig_traj_192.xlsx
@@ -1004,79 +1004,79 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1221826846524188</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>-0.1325596479805452</v>
       </c>
       <c r="C2" t="n">
         <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02981377946774599</v>
+        <v>0.0295461924198502</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2776285541184297</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.007185004869793723</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1031348783056883</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>-0.106917653986966</v>
       </c>
       <c r="L2" t="n">
         <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.05396273828023569</v>
+        <v>-0.009630752303574108</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.2223636775622847</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.0135216733793913</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.007402058886538143</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-0.03198519879561309</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.04020592222121715</v>
+        <v>0.05689973500830451</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.1089186502865644</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.02461499612799827</v>
+        <v>-0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -1085,118 +1085,118 @@
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02625844141964371</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0.08260661680849585</v>
       </c>
       <c r="AD2" t="n">
         <v>-0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.008764889803522245</v>
+        <v>0.01655490321469943</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0.03935560699952714</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.02543305594626249</v>
+        <v>-0</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.06550807396646231</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0.06526673827723177</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.01511392085579059</v>
+        <v>-0.08377200744450095</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0.1508125144811636</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.009249148044121075</v>
+        <v>-0</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.1668733653754104</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0.2003786317984795</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
         <v>-0</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.01700521880677837</v>
+        <v>0.1300536553700075</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>0.4661272795929176</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.01088903904538077</v>
+        <v>-0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0449986442365825</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0.1019315961424422</v>
       </c>
       <c r="BE2" t="n">
         <v>-0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.04097873783962588</v>
+        <v>0.02417121635232534</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>0.05425659100188865</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.03106515094846258</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.01442030358828694</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0.1058893177997798</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -1205,79 +1205,79 @@
         <v>0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.04479889701625237</v>
+        <v>-0.04980552648711953</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>-0.004398305146162258</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.01934171445986959</v>
+        <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT2" t="n">
         <v>-0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.1308684484040919</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0.1631417456000037</v>
       </c>
       <c r="BW2" t="n">
         <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.02625981681086178</v>
+        <v>0.09199871832778382</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>0.2568295767399469</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.02083628415076884</v>
+        <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.06216951397239923</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>0.09292330088689864</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.01611414400698096</v>
+        <v>-0.003324894880627208</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>-0.08622221159529987</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.003688026289859704</v>
+        <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.0009024890839528249</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>0.0009946480603000942</v>
       </c>
       <c r="CO2" t="n">
         <v>-0</v>
@@ -1286,121 +1286,121 @@
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.000892089313615666</v>
+        <v>0.002911495236058416</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0.002498518338736247</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.0006841785257151634</v>
+        <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
         <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.05620467442982457</v>
+        <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>0.06537516985287585</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY2" t="n">
         <v>-0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.004614225771034151</v>
+        <v>-0.007360786804887426</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
+        <v>-0.09983264599801532</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.00185297292322063</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.0194475802217623</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>0.05863451258385064</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.03068021635168759</v>
+        <v>-0.1735872646522105</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>-0.04102589065778278</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.004702167023712686</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01210797807813716</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>0.01607925980330027</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.008691184130856294</v>
+        <v>0.04530295771333684</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>-0.008143588201298469</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.02537325671069098</v>
+        <v>-0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.00199264737336864</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>0.09043174607147236</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
         <v>-0</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.01285859528841682</v>
+        <v>-0.008775654299256266</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>-0.09177307012437178</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.01066621942761222</v>
+        <v>-0</v>
       </c>
       <c r="ED2" t="n">
         <v>-0</v>
@@ -1409,37 +1409,37 @@
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.09007615139829295</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>0.05549943907466821</v>
       </c>
       <c r="EH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.02358506231258291</v>
+        <v>-0.06665323662234698</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>-0.06154536705711426</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.01956657948690113</v>
+        <v>0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.02692483829234603</v>
+        <v>-0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>0.026609708148491</v>
       </c>
       <c r="EQ2" t="n">
         <v>-0</v>
@@ -1448,109 +1448,109 @@
         <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.04758899752244991</v>
+        <v>0.02475985850273873</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>-0.004331758356435968</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02885329355196744</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW2" t="n">
         <v>-0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.0531169889023653</v>
+        <v>-0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>0.06482023757872163</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.001624044020280338</v>
+        <v>-0.01343543298078949</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>-0.09497476679395349</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.004760365665197294</v>
+        <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0574160057375462</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>0.04386343206213528</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.02134859726297832</v>
+        <v>0.02706278697379791</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0.08479250515587512</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.006627091526525841</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
         <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.01995542739964071</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>0.05216584623000506</v>
       </c>
       <c r="FR2" t="n">
         <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.0209893314014909</v>
+        <v>0.01756090338889561</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0.07192841997914616</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.04635228301520752</v>
+        <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
         <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.02591853936932158</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>-0.00213555786426776</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
         <v>0</v>
@@ -1559,39 +1559,39 @@
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>0.08267886847429701</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.009610967073085596</v>
+        <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1302065842708822</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.06683828911842679</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.02502187872820323</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01399259192089214</v>
+        <v>-0.02273766107103135</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>-0.02425491315148753</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
         <v>-0</v>
@@ -1600,25 +1600,25 @@
         <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1149306603861862</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.05121846351366165</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.02357815427737963</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.05307368692620379</v>
+        <v>-0.02101595613811584</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0.02276778103160125</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
@@ -1627,103 +1627,103 @@
         <v>-0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03251896235703227</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>0.01633431150023209</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.01195664081454681</v>
+        <v>-0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.1032080845056216</v>
+        <v>-0.01055208517117251</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.01254536051030162</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.007463463609021691</v>
+        <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.004121784644244086</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.001119003624787528</v>
+        <v>-0</v>
       </c>
       <c r="AE3" t="n">
         <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.02427405131044716</v>
+        <v>0.009124635463044787</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>0.003665884380847915</v>
       </c>
       <c r="AH3" t="n">
         <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.04182900724637321</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.008092224686457605</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.005662722791787644</v>
+        <v>-0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.0255028280945494</v>
+        <v>-0.01918069407562068</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0</v>
+        <v>-0.0129942416549228</v>
       </c>
       <c r="AQ3" t="n">
         <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1201142839079804</v>
+        <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>0.0971539332918098</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.03192520086842006</v>
+        <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.01439123779775364</v>
+        <v>-0.008808726209790011</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0.01836468545159951</v>
       </c>
       <c r="AZ3" t="n">
         <v>-0</v>
@@ -1732,25 +1732,25 @@
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.05181579132581968</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>0.02637494937591453</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.03860744046152209</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.0003414749661619598</v>
+        <v>-0.0615331784058313</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>-0.04881952876082857</v>
       </c>
       <c r="BI3" t="n">
         <v>0</v>
@@ -1759,52 +1759,52 @@
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.01653652957907442</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>0.03505589985416163</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.02588974280184807</v>
+        <v>-0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.06406220969118628</v>
+        <v>0.02054332387517647</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0.02155182616029998</v>
       </c>
       <c r="BR3" t="n">
         <v>-0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.1078505925289318</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>0.04180182571539127</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.007677595882038452</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.004447075508861418</v>
+        <v>-0.01552320983918893</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0</v>
+        <v>-0.002857280452661095</v>
       </c>
       <c r="CA3" t="n">
         <v>-0</v>
@@ -1816,157 +1816,157 @@
         <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.05269315245447166</v>
+        <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.02185431416917163</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.02047214992542199</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.007110364318321115</v>
+        <v>0.0007882613757868945</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>0.01739835042109649</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.0005764949371616472</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>0.0005574651877753846</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0.0001284019324761702</v>
+        <v>-0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.002675535926322904</v>
+        <v>0.0003680763633037602</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0.0007470704001217782</v>
       </c>
       <c r="CS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT3" t="n">
         <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.04622509690741892</v>
+        <v>-0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.01531424525833571</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.02193930879930412</v>
+        <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.01358076163586642</v>
+        <v>0.003706337431959918</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>0.01872135504987369</v>
       </c>
       <c r="DB3" t="n">
         <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
         <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.007117338272531372</v>
+        <v>-0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0.01376528015335258</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.02035772951747054</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.01581265824586859</v>
+        <v>0.02368097293992542</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>-0.001044540808603807</v>
       </c>
       <c r="DK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.007127266139117998</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0.004005123600715156</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.004148305258016723</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.01390270506314624</v>
+        <v>0.01784323491443598</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>-0.007394951304354211</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.01467429705259601</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>-0.03386893442787201</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.002847129782551405</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.03643848161682704</v>
+        <v>0.01791466953574379</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0</v>
+        <v>0.01358498748725337</v>
       </c>
       <c r="EC3" t="n">
         <v>-0</v>
@@ -1975,151 +1975,151 @@
         <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.0862300048620375</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.0204647742873071</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.01878743426144624</v>
+        <v>-0</v>
       </c>
       <c r="EI3" t="n">
         <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.02510297774115433</v>
+        <v>0.003098217425834757</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>0.01448990289364832</v>
       </c>
       <c r="EL3" t="n">
         <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
         <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0.02290121834608277</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.009812493303619439</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.02797153819294712</v>
+        <v>-0</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.003559368417168484</v>
+        <v>0.006794212969962391</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>-0.001479928696325481</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0.04453420997110355</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.01546926730086737</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.02038074025187317</v>
+        <v>-0</v>
       </c>
       <c r="FA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.01196816267915154</v>
+        <v>0.005903259287382938</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0.02302554659989057</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
         <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.05985413316512887</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>-0.02049137052293495</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.006288869500120631</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
         <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.008116487357114916</v>
+        <v>0.01662596139332302</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>0.01165572835126054</v>
       </c>
       <c r="FM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.01616882042117826</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>0.003515255631533317</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.003579185276225686</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
         <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.02234524036351408</v>
+        <v>-0.01991128506145687</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0.005038631712644738</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.05251718338861974</v>
+        <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>0.002474377831257899</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.001216450549401636</v>
+        <v>-0</v>
       </c>
       <c r="GB3" t="n">
         <v>-0</v>
@@ -2128,66 +2128,66 @@
         <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>-0</v>
+        <v>-0.01554495380139698</v>
       </c>
       <c r="GE3" t="n">
         <v>0</v>
       </c>
       <c r="GF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.09543982132020336</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0.2648990402019546</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.06364140287672218</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02900174092881887</v>
+        <v>-0.07191386436743992</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01172634500158669</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08556769092134663</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0.1882078033791055</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0.05873128424689916</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04637039909901031</v>
+        <v>-0.05330417648261011</v>
       </c>
       <c r="O4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.001206109606874813</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -2196,52 +2196,52 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.006038932915088585</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.09416760408445721</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-0.03030098059636517</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.05657987112572235</v>
+        <v>0.07758638818348287</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.06362554442936619</v>
+        <v>-0</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02589657442413737</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.04987567131224008</v>
       </c>
       <c r="AD4" t="n">
         <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0</v>
+        <v>-0.002097180299950283</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.008362868132452975</v>
+        <v>-0.01740236260162581</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.04032043788549936</v>
+        <v>-0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -2250,79 +2250,79 @@
         <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.04642936494829852</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.02270983974400179</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>-0.04960505299730634</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.009386044008492873</v>
+        <v>-0.04994810900760096</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.00522412505324255</v>
+        <v>-0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.09552172194324225</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.3905040067708478</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0</v>
+        <v>0.03200977409363412</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.02162150334195422</v>
+        <v>0.0493912438032896</v>
       </c>
       <c r="AY4" t="n">
         <v>-0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.01425676023671783</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
         <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.030301422706247</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>0.03988463035960109</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0</v>
+        <v>-0.1215189061153849</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.03896628716452722</v>
+        <v>-0.1269709545573439</v>
       </c>
       <c r="BH4" t="n">
         <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.01239623642565532</v>
+        <v>0</v>
       </c>
       <c r="BJ4" t="n">
         <v>0</v>
@@ -2331,52 +2331,52 @@
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.02074485944640752</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>0.09065388094274644</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>0.07141483016566899</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.04897685234174647</v>
+        <v>0.125689751849911</v>
       </c>
       <c r="BQ4" t="n">
         <v>-0</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.005529525261851655</v>
+        <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT4" t="n">
         <v>-0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.06199499000273684</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.1840998620786753</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>0.007373315317651106</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.0092124697609788</v>
+        <v>0.03533067888082586</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.01572257031606636</v>
+        <v>-0</v>
       </c>
       <c r="CB4" t="n">
         <v>-0</v>
@@ -2385,378 +2385,378 @@
         <v>-0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0.03561424693391245</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.09411233440386485</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0</v>
+        <v>-0.009635503310069224</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.01550199664313693</v>
+        <v>0.001782539740064834</v>
       </c>
       <c r="CI4" t="n">
         <v>-0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-0.009116862534238318</v>
+        <v>0</v>
       </c>
       <c r="CK4" t="n">
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.003395118576048115</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0</v>
+        <v>-0.001409433437527285</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0</v>
+        <v>-0.004627204655871276</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.00217447569270037</v>
+        <v>-0.01135369257396618</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.0004771276371812525</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
         <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0.03158856392757788</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.06396327989885699</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>0.02656051621945607</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.008841892921544702</v>
+        <v>-0.006136689187345907</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0.003905249404116295</v>
+        <v>0</v>
       </c>
       <c r="DC4" t="n">
         <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0.008881989064699921</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0.02181945762226763</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>0.05355042462501344</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.001939840890170792</v>
+        <v>0.01858087002203559</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.0002179361015974841</v>
+        <v>-0</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM4" t="n">
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.02145852171213544</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0.07663346248126031</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0</v>
+        <v>-0.0112058557372158</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.02524268635652623</v>
+        <v>-0.04961405090530052</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.0308938678922394</v>
+        <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV4" t="n">
         <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.008727180812185136</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0</v>
+        <v>-0.0381966733278794</v>
       </c>
       <c r="DY4" t="n">
         <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>-0</v>
+        <v>-0.03334485551282911</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.008956022214506719</v>
+        <v>-0.01026238319736849</v>
       </c>
       <c r="EB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.006530698519146431</v>
+        <v>-0</v>
       </c>
       <c r="ED4" t="n">
         <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0.05953157225659927</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.07990268657284076</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>0.001161588539049069</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.01489001273092194</v>
+        <v>0.0748266662404817</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL4" t="n">
-        <v>-0.01735417241765176</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>-0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0.02148960372331332</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0.0169718920761699</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>0</v>
+        <v>0.01041668589203739</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.03957598335881972</v>
+        <v>0.03681348732720119</v>
       </c>
       <c r="ET4" t="n">
         <v>-0</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0.001698766622152668</v>
+        <v>-0</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0.02775055116307757</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.06400992899520146</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>0.0006485136987018916</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.003102928166336406</v>
+        <v>0.01428090165400867</v>
       </c>
       <c r="FC4" t="n">
         <v>-0</v>
       </c>
       <c r="FD4" t="n">
-        <v>-0.004502074815249264</v>
+        <v>0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.04749573475882204</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>-0.02880828116802735</v>
       </c>
       <c r="FI4" t="n">
         <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0</v>
+        <v>0.009921336993986994</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.01953788738402693</v>
+        <v>-0.006691200379684304</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.003909030436366679</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.002352818297539727</v>
+        <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0.04084474282386334</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>0.02779985044900109</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.003797387842030176</v>
+        <v>-0.06537713071189176</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.004340274649382172</v>
+        <v>-0</v>
       </c>
       <c r="FW4" t="n">
         <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.04599691186046048</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-0</v>
+        <v>0.05256130193450508</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0</v>
+        <v>-0.05220353247274824</v>
       </c>
       <c r="GC4" t="n">
         <v>-0</v>
       </c>
       <c r="GD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.02382755579407174</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1559691356378336</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.1410202782558627</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.07300475876913062</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05760923821069529</v>
+        <v>-0.02579296822356879</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>-0.07882343671008296</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
         <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1638458480628942</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.1149352144948177</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.06394915025135416</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.02620199746746222</v>
+        <v>-0.00560216294862142</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-0.06349529566387704</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
         <v>-0</v>
@@ -2765,106 +2765,106 @@
         <v>-0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03487657542750467</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>0.02486221085034998</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.02229779141039091</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.1251528726396096</v>
+        <v>-0.03882555453073414</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.007953206099217533</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.02003998228199734</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>-0.00366154530372284</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.009137860616438082</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
         <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.05672459439309494</v>
+        <v>0.01030698646265549</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>-0.01104328905903841</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.06801858703855958</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.0285425844770852</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.02430965625046204</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.02855014221009134</v>
+        <v>-0.005938713057855526</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>-0.04392575069612908</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.1308848939775374</v>
+        <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.1481300511189013</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.08846615570435774</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
         <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.02940633227907626</v>
+        <v>-0.05168577225969324</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0.08266090042861632</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
         <v>-0</v>
@@ -2873,22 +2873,22 @@
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.04051360514252603</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.06111238188573443</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.05913446886100222</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.06715543444418795</v>
+        <v>-0.0278838993387512</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>-0.05938349331437833</v>
       </c>
       <c r="BI5" t="n">
         <v>0</v>
@@ -2900,25 +2900,25 @@
         <v>-0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.006544978879174877</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.05561734711797324</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.05481628617643782</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
         <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0920443888664781</v>
+        <v>0.02511140931994077</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0.01270509173770959</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
@@ -2927,22 +2927,22 @@
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.1392423740201326</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.08232317751242886</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0.03635873442827831</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.03054422472768039</v>
+        <v>-0.03309360632430882</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>-0.03097297870566606</v>
       </c>
       <c r="CA5" t="n">
         <v>-0</v>
@@ -2951,25 +2951,25 @@
         <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.05703636266942159</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.03833787590266918</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.03550737726175162</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.00942881563138529</v>
+        <v>-0.004987176429769227</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0.03977461585273488</v>
       </c>
       <c r="CJ5" t="n">
         <v>-0</v>
@@ -2981,49 +2981,49 @@
         <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0.004839899937950865</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.001049258113982049</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0.0008658861566074155</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.01029063672840029</v>
+        <v>0.001416367136546059</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>-0.001635803509596689</v>
       </c>
       <c r="CS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
         <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0.04771100868280545</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.03423707695073189</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.03588787972549595</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.03400947694376286</v>
+        <v>-0.002506715589714907</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>0.04461884527778701</v>
       </c>
       <c r="DB5" t="n">
         <v>0</v>
@@ -3035,22 +3035,22 @@
         <v>-0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0.03782390464157521</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.05052523770300458</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.02597280686248007</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.01629240185805822</v>
+        <v>0.0548247292459323</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0.0008467604903610016</v>
       </c>
       <c r="DK5" t="n">
         <v>-0</v>
@@ -3059,52 +3059,52 @@
         <v>0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.005162750131666435</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.01960381105687268</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0.03089148529309848</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.03012988035880879</v>
+        <v>0.02044551779355115</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>0.005302105553416011</v>
       </c>
       <c r="DT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.01524142901025891</v>
+        <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.04419225231264957</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0.001987965567810124</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
         <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.03633821559116911</v>
+        <v>0.01743247987512856</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0.02563456933576336</v>
       </c>
       <c r="EC5" t="n">
         <v>-0</v>
@@ -3113,52 +3113,52 @@
         <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0.1019267019621739</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.03038991310809848</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.03742230223623918</v>
+        <v>0</v>
       </c>
       <c r="EI5" t="n">
         <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.008889767633226296</v>
+        <v>0.007778460140320567</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>0.04018846782319158</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0.04006173041716491</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.02687275141575664</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0.04290880060782341</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES5" t="n">
-        <v>-0.02189310490211296</v>
+        <v>-0.01632540345980725</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>-0.005577923106071601</v>
       </c>
       <c r="EU5" t="n">
         <v>-0</v>
@@ -3167,25 +3167,25 @@
         <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0.0509660224727904</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.0346001036596696</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.0330998370624093</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.0262773555198401</v>
+        <v>-0.0002240284847396851</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0</v>
+        <v>0.04413143916719909</v>
       </c>
       <c r="FD5" t="n">
         <v>-0</v>
@@ -3197,67 +3197,67 @@
         <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.04643604744245871</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>-0.02344656844886248</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0271702589433097</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
         <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.01969672994912808</v>
+        <v>0.009773127294445251</v>
       </c>
       <c r="FL5" t="n">
-        <v>0</v>
+        <v>0.03340830886636971</v>
       </c>
       <c r="FM5" t="n">
         <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
         <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.001496118731543076</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.006505755616033635</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.01249312859474762</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.04803332079194483</v>
+        <v>-0.0325039344304392</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0.02686016396421205</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.04818105266359082</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>0.0007681062586894554</v>
       </c>
       <c r="GA5" t="n">
-        <v>-0.0006000334735297905</v>
+        <v>-0</v>
       </c>
       <c r="GB5" t="n">
         <v>-0</v>
@@ -3266,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>-0.01861151155108751</v>
       </c>
       <c r="GE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
         <v>-0</v>
@@ -3280,22 +3280,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1507331462520704</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.105393607392874</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.05693293003486905</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01082291250356923</v>
+        <v>-0.03862591179466556</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0.06662024249647405</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3304,25 +3304,25 @@
         <v>-0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1404028822359524</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.09218639070948313</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.03922780692448827</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.03858535978818606</v>
+        <v>-0.02775152064041153</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.04207145342588373</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -3331,133 +3331,133 @@
         <v>-0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.008104207446094537</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0</v>
+        <v>0.01197178530850308</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.01484513270934077</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.07205441749980902</v>
+        <v>-0.01364792404645785</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.01455155825535077</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.009171801749481033</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0.002242225910422958</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.004082023808856769</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
         <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.02675883953751102</v>
+        <v>0.007627847054635488</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>-0.006208549645664025</v>
       </c>
       <c r="AH6" t="n">
         <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.03303656763252518</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.008324544445089087</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.01128204650346454</v>
+        <v>-0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.01327915624740875</v>
+        <v>-0.01568531989472562</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.01436509116944706</v>
       </c>
       <c r="AQ6" t="n">
         <v>-0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.1040768874600862</v>
+        <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>0.1091754340393463</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.0554227987904044</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.03996085813486423</v>
+        <v>-0.03669851705789688</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.05013403933667113</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>-0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.05305672133246145</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>0.03930204194752713</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0.04399638797098752</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.007992925715143765</v>
+        <v>-0.06080138089730613</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.05735288126050353</v>
       </c>
       <c r="BI6" t="n">
         <v>0</v>
@@ -3469,49 +3469,49 @@
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.01711321876750076</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>0.03933351222411553</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.0325576032243398</v>
+        <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.06717058625260101</v>
+        <v>0.02841351658683119</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0</v>
+        <v>0.01779833351607879</v>
       </c>
       <c r="BR6" t="n">
         <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT6" t="n">
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.09432962053002844</v>
+        <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.05414113951792002</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0.008405341850382133</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.03418544610367502</v>
+        <v>-0.01566437857453054</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>-0.01197632225145324</v>
       </c>
       <c r="CA6" t="n">
         <v>-0</v>
@@ -3523,52 +3523,52 @@
         <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0.04975426937778064</v>
+        <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.02764364976824194</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.02491836707717243</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0.0003509723791289873</v>
+        <v>0.002673894631209749</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.02650585125103443</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL6" t="n">
         <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0.001468739657993697</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>0.001044078235766537</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0.001220604609240458</v>
+        <v>-0</v>
       </c>
       <c r="CP6" t="n">
         <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.01989917791044018</v>
+        <v>0.004414831211043778</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0</v>
+        <v>-0.007518047943929835</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
@@ -3577,22 +3577,22 @@
         <v>-0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0.04447422802199003</v>
+        <v>-0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.02039472769586598</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.02528071140517481</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.01782193996338239</v>
+        <v>0.00731297993397732</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.02868066624101028</v>
       </c>
       <c r="DB6" t="n">
         <v>0</v>
@@ -3601,133 +3601,133 @@
         <v>-0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>-0.01443908478950685</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.03447946934573446</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.01520788304194538</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.02134842867485123</v>
+        <v>0.0383600096285184</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>-0.0003480882909733979</v>
       </c>
       <c r="DK6" t="n">
         <v>-0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.002989386895431004</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.007928235444414461</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.007908061145193802</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
         <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.01808209409116769</v>
+        <v>0.005385347577786728</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>-0.005879935292152946</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.003196906669783791</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>-0.02996500409784866</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0.005720321820867572</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.01754417040478611</v>
+        <v>0.01884052139693086</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0.02155046834119102</v>
       </c>
       <c r="EC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0.07904964171265401</v>
+        <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.02724540126222329</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.02307702574845933</v>
+        <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.002997333239045366</v>
+        <v>0.01344778616172645</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.03024571752233485</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0.0230030954440746</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.01368021858918679</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.03448554179671404</v>
+        <v>-0</v>
       </c>
       <c r="ER6" t="n">
         <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.005569572937069776</v>
+        <v>0.01945940696908119</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>-0.001534280044703618</v>
       </c>
       <c r="EU6" t="n">
         <v>-0</v>
@@ -3736,109 +3736,109 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0.0448916854975634</v>
+        <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.01968967036175339</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.02379676582602182</v>
+        <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.01100104889254526</v>
+        <v>0.01032058013238543</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0</v>
+        <v>0.03140297005211409</v>
       </c>
       <c r="FD6" t="n">
         <v>-0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
         <v>0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.0429633585992731</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>-0.01679051861931863</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.01099732497584294</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
         <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.02956226745417597</v>
+        <v>0.0159748079566695</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.01496293674793574</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.009643306446052647</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>0.004508800564165339</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.001056649784961756</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
         <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.02275494196755962</v>
+        <v>-0.0239823349732586</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.001727154148208447</v>
       </c>
       <c r="FV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.02430371906807929</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>0.005322960670697717</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.00021564719374578</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>-0.005368888271155104</v>
       </c>
       <c r="GE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF6" t="n">
         <v>-0</v>
@@ -3849,106 +3849,106 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1935065123536959</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.3041267767614614</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.07944696767260467</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.08394099782253357</v>
+        <v>-0.0337671603386641</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009763712021861524</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1778545238286153</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.2281530196259798</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.0654441519635853</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1177813119406621</v>
+        <v>-0.04450167181251637</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.003445905625266544</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01044579650387267</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.09520426892144021</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>-0.0169547063983432</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.06760448149466521</v>
+        <v>0.05978503822968013</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.04020763152468823</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.03535943065494475</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.1319022583999126</v>
       </c>
       <c r="AD7" t="n">
         <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0</v>
+        <v>-0.04610901995692983</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01025818154207805</v>
+        <v>-0.06551759911350233</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.04899719897694307</v>
+        <v>-0</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
@@ -3957,79 +3957,79 @@
         <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.05708938916867398</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.02616553386563628</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0.06803660098714695</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.03908511207419903</v>
+        <v>-0.0476210516078717</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.005360282099612255</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.1409272925271525</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.3555154206267067</v>
       </c>
       <c r="AV7" t="n">
         <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0</v>
+        <v>-0.02396879432876483</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.01006039933308775</v>
+        <v>0.1246799456520706</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.03728381882746121</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.07384553588323439</v>
+        <v>-0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.03255030966877175</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>-0.05551148549638381</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.06022902154189615</v>
+        <v>-0.1760332552659136</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.01059882617636981</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
@@ -4038,79 +4038,79 @@
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.02707124328007853</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>0.03579652113615843</v>
       </c>
       <c r="BN7" t="n">
         <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>0.09546420936147998</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0591892247297452</v>
+        <v>0.1088155932183493</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0273947927236382</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
         <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.1096744927360405</v>
+        <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.202392100328228</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>0.0009175871886238721</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.03313225353045066</v>
+        <v>0.04900493908349321</v>
       </c>
       <c r="BZ7" t="n">
         <v>0</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.02070234138783406</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0.06159596903141244</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.08999001611180633</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0</v>
+        <v>0.01727573185775867</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.02621436090251687</v>
+        <v>-0.002528439247817448</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>-0.003779833746329603</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
@@ -4119,52 +4119,52 @@
         <v>-0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0.002126661574285971</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>-0.01359587497526173</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0</v>
+        <v>-0.02271059506019469</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.01761864608599713</v>
+        <v>-0.02025952320216804</v>
       </c>
       <c r="CR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>-0.004570030449369624</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0.0532634729137046</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.07541447755884395</v>
       </c>
       <c r="CX7" t="n">
         <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0.04047462635582431</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.01511291879170065</v>
+        <v>-0.002143794457877505</v>
       </c>
       <c r="DA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.0005980070635658964</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
         <v>-0</v>
@@ -4173,160 +4173,160 @@
         <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0.01062805355620504</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.01171508161622276</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0</v>
+        <v>-0.0005064193716877428</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.03807974424008426</v>
+        <v>0.0005158961975796625</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK7" t="n">
-        <v>-0.0006362060635330339</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.007725668158086424</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.05732808368393926</v>
       </c>
       <c r="DP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>-0.0537891126798741</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.02795283667373996</v>
+        <v>-0.07017128268831267</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
-        <v>-0.02603342716778668</v>
+        <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
         <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>-0.002201878750479365</v>
+        <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.01253964608854623</v>
       </c>
       <c r="DY7" t="n">
         <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.02166087378417396</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.007443189457062618</v>
+        <v>-0.01426526995046999</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.001552427712004946</v>
+        <v>0</v>
       </c>
       <c r="ED7" t="n">
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0.1029989104006471</v>
+        <v>-0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.05557419230016485</v>
       </c>
       <c r="EH7" t="n">
         <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0.02889320963818383</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.02966065676935333</v>
+        <v>0.09170814535274439</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>-0.02642872398006179</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
         <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0.0225010070655219</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.07823818281081436</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>-0.08543434209851064</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0593974692032985</v>
+        <v>-0.01285914379528745</v>
       </c>
       <c r="ET7" t="n">
         <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>-0.01885964564539839</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
         <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0.05279692825744676</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.07920099059611359</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0.02680567836240331</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.01044641974022802</v>
+        <v>-0.006436687019389604</v>
       </c>
       <c r="FC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD7" t="n">
-        <v>-0.0008628664681361663</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
         <v>0</v>
@@ -4335,108 +4335,108 @@
         <v>-0</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.0506810989211574</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.00744759997392381</v>
       </c>
       <c r="FI7" t="n">
         <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>0.04965294011384581</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.01314394870974186</v>
+        <v>-0.03095888140158225</v>
       </c>
       <c r="FL7" t="n">
         <v>0</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.006004620809543029</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.01288181841003788</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>0.002443531002751255</v>
       </c>
       <c r="FR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0</v>
+        <v>0.07387986065508181</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.002043874033848771</v>
+        <v>0.02707628372713808</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.01729988455710106</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
         <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.03419506069633083</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.02408872291696919</v>
       </c>
       <c r="GA7" t="n">
         <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.02974876786586001</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.02821572419168612</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.259818775489461</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0.1774618845533465</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.12405147082261</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03890828598381552</v>
+        <v>-0.04804408566546823</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>-0.1175756295394787</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H8" t="n">
         <v>-0</v>
@@ -4445,25 +4445,25 @@
         <v>-0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2510026544789405</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0</v>
+        <v>0.1521067439743989</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.1004700190610226</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.07905876487552944</v>
+        <v>-0.01627300610532379</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0.07696903691843332</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
         <v>-0</v>
@@ -4472,103 +4472,103 @@
         <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.023416916218105</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0</v>
+        <v>0.03182302377754161</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.04355215711387939</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.1280692518269673</v>
+        <v>-0.02862698168781971</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>-0.0003495146993050758</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.02147653621096975</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0</v>
+        <v>-0.00228482560609198</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.01017659079171901</v>
+        <v>-0</v>
       </c>
       <c r="AE8" t="n">
         <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.06024572448644429</v>
+        <v>-0.0008747245431520338</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0</v>
+        <v>-0.008968006854129093</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.07401824161741623</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.02640756563704421</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.02697506662351578</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.03774558762224555</v>
+        <v>-0.009683204145728116</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>-0.05310058128740785</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.1780258899273334</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.1528534643943812</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.1403732805187911</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.01128258247476327</v>
+        <v>-0.03734727186145556</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>-0.1161542728417131</v>
       </c>
       <c r="AZ8" t="n">
         <v>-0</v>
@@ -4580,76 +4580,76 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.06064794844075661</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.05233599532775377</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.05711690970908377</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.06143640068566557</v>
+        <v>-0.04833762042083375</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0</v>
+        <v>-0.0491269410728273</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK8" t="n">
         <v>-0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.005446406231244558</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.04964417299871704</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.05438552330019313</v>
+        <v>-0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.1120754614436697</v>
+        <v>0.02317401838687887</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0</v>
+        <v>0.004534260766278887</v>
       </c>
       <c r="BR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS8" t="n">
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.1724309066807593</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.08830141853826382</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0.0487446107017841</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
         <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.02216725750604015</v>
+        <v>-0.02551131689542412</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0</v>
+        <v>-0.03422336445025529</v>
       </c>
       <c r="CA8" t="n">
         <v>-0</v>
@@ -4661,22 +4661,22 @@
         <v>-0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0.07999627386215331</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0.0426960855627903</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.03769923062036234</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.005579488661081136</v>
+        <v>0.002064841516864209</v>
       </c>
       <c r="CI8" t="n">
-        <v>0</v>
+        <v>0.03709441325662847</v>
       </c>
       <c r="CJ8" t="n">
         <v>-0</v>
@@ -4688,49 +4688,49 @@
         <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0.01334040652161496</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>0.0002524096796776107</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0.004717313322957942</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.02582643950342416</v>
+        <v>0.001137313638678613</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>-0.01292647560800126</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0.07278454100298765</v>
+        <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.03780652974364755</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.03826560319862821</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.02086198632344791</v>
+        <v>0.006945445538257791</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0</v>
+        <v>0.04040790321084167</v>
       </c>
       <c r="DB8" t="n">
         <v>0</v>
@@ -4742,130 +4742,130 @@
         <v>-0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.005556261200366049</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>0.00611381714759533</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.02688619010107091</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.02577607727371898</v>
+        <v>0.05425811866621269</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0</v>
+        <v>0.001849885853411415</v>
       </c>
       <c r="DK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL8" t="n">
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.003116542681777026</v>
+        <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0.02003496397438697</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.03755039672047995</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
         <v>0</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.04451653263572502</v>
+        <v>0.01486257327730923</v>
       </c>
       <c r="DS8" t="n">
-        <v>-0</v>
+        <v>0.009253161033919382</v>
       </c>
       <c r="DT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU8" t="n">
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.001377675336018257</v>
+        <v>0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>-0.04823800017351424</v>
       </c>
       <c r="DY8" t="n">
-        <v>-0.005752472051727803</v>
+        <v>-0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA8" t="n">
-        <v>-0.02616036474898786</v>
+        <v>0.03128580391230212</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0</v>
+        <v>0.01650633670439284</v>
       </c>
       <c r="EC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0.119811624195168</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.03632211996327393</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.05173428060860618</v>
+        <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.01286828498723682</v>
+        <v>0.01284293478245575</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>0.03734275217215383</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0.0510557789526829</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.03403833236071764</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0.03206812295094046</v>
+        <v>-0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES8" t="n">
-        <v>-0.01192319197898986</v>
+        <v>-0.005873485944490737</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0</v>
+        <v>0.006608376008677746</v>
       </c>
       <c r="EU8" t="n">
         <v>-0</v>
@@ -4874,25 +4874,25 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0.0732490749013313</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.03780404859297667</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.03227646511740918</v>
+        <v>-0</v>
       </c>
       <c r="FA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.01466372764894747</v>
+        <v>0.008499741856094388</v>
       </c>
       <c r="FC8" t="n">
-        <v>-0</v>
+        <v>0.03833762558058384</v>
       </c>
       <c r="FD8" t="n">
         <v>-0</v>
@@ -4904,67 +4904,67 @@
         <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.06047001793555862</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>-0.02331342039897978</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.04235239196048771</v>
+        <v>0</v>
       </c>
       <c r="FJ8" t="n">
         <v>-0</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.02742989445448144</v>
+        <v>0.01144635592023375</v>
       </c>
       <c r="FL8" t="n">
-        <v>0</v>
+        <v>0.03574985519741991</v>
       </c>
       <c r="FM8" t="n">
         <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
         <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.004398773793356292</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>-0.002933223403480311</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.01956728830191206</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
         <v>-0</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.03105240718197969</v>
+        <v>-0.02663353189099168</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>0.021875456413417</v>
       </c>
       <c r="FV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.03419783268079559</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>-0.003310714661828454</v>
       </c>
       <c r="GA8" t="n">
-        <v>-0.02570209461704534</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
         <v>-0</v>
@@ -4973,10 +4973,10 @@
         <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>-0</v>
+        <v>-0.01871974115312633</v>
       </c>
       <c r="GE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF8" t="n">
         <v>-0</v>
@@ -4987,25 +4987,25 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2103991295784718</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.2966100372177339</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.02686182821885146</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-0.09251972744736088</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02702206927144782</v>
+        <v>-0.06748450314023292</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-0.03727931121430023</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008971602082008765</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>-0</v>
@@ -5014,25 +5014,25 @@
         <v>-0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2104529401255379</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.2462414960894206</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.02172921961648686</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.06323117368119831</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.08150945958811426</v>
+        <v>-0.04989109041129199</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0.03758790430219033</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.01168931500828759</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -5041,52 +5041,52 @@
         <v>-0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02283596674061357</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0</v>
+        <v>0.07824064031665799</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.0225991908314255</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>-0.02495468807201317</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.09572035528005135</v>
+        <v>0.041574818616316</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>0.01134099364354196</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.08412450454052225</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.01026854349363642</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.05498497229725322</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.03286759244462772</v>
+        <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.01204503911599231</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.01618444941918252</v>
+        <v>-0.01354466039631152</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>-0.01708847235848042</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.059245861298664</v>
+        <v>-0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -5095,133 +5095,133 @@
         <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.05418750966865749</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.01905949238737632</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.00378155548495785</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>-0.05663539425623951</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.01633984537743206</v>
+        <v>-0.05403336755295805</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>-0.04219881775711441</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.007718453318429346</v>
+        <v>-0</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.1407876725548935</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>0.2885058195484158</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0.02836067400947163</v>
+        <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0</v>
+        <v>-0.03749721060397475</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.01968326049333061</v>
+        <v>0.03235513206781332</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>0.02482680063354763</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.03875984888779887</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
         <v>-0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.06123434207613784</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.04818761496071487</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0.01629698310622337</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>-0.06299947960859739</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.03004198332104831</v>
+        <v>-0.1092746393109315</v>
       </c>
       <c r="BH9" t="n">
-        <v>0</v>
+        <v>-0.04926506270783808</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.009290293688811704</v>
+        <v>0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.03743668705828267</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.0675591551168373</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.02094975842311166</v>
+        <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>0.05108264766477009</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.07209500411537487</v>
+        <v>0.09918260135572098</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0</v>
+        <v>0.03697479759525464</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.01577567391019274</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.1011414193428049</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.1345310958844833</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0.007866056809215111</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>0.00201939559197415</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.00365247852575581</v>
+        <v>0.02245707613755304</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0</v>
+        <v>0.01372309285657461</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.00828948869504143</v>
+        <v>-0</v>
       </c>
       <c r="CB9" t="n">
         <v>-0</v>
@@ -5230,52 +5230,52 @@
         <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0.06123099756782078</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.07142502792888485</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.009170140548131291</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0</v>
+        <v>0.0104552731082974</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.01012470694574983</v>
+        <v>-0.002659918355594485</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>0.02396518348049048</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.009013585551541288</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
         <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0.004539279976344657</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>-0.003063618586850321</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0.0008687863161971173</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0</v>
+        <v>-0.02718205369307522</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.02378925283389634</v>
+        <v>-0.03244922505246275</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>-0.01659622414320707</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0.01672247830941332</v>
+        <v>-0</v>
       </c>
       <c r="CT9" t="n">
         <v>-0</v>
@@ -5284,79 +5284,79 @@
         <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0.05520716950220839</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.05861319959364533</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.01415914308403907</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0</v>
+        <v>0.03199759872846165</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.01185710148763804</v>
+        <v>0.001307611386036127</v>
       </c>
       <c r="DA9" t="n">
-        <v>0</v>
+        <v>0.02543322536536964</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0.002618104382287312</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
         <v>-0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0.00710810174710614</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.03189863012438825</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.008623196628909167</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>0.04326940263664507</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.0005395480572834383</v>
+        <v>-0.004164121119110139</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0.01123783123593995</v>
       </c>
       <c r="DK9" t="n">
-        <v>-0.009877251783017677</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.01811909477855861</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.01978872254523345</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.001070421673473432</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>-0</v>
+        <v>0.03752325915282668</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.01254777682968962</v>
+        <v>-0.01744772156067373</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>0.0192804475848472</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.03724613219861227</v>
+        <v>-0</v>
       </c>
       <c r="DU9" t="n">
         <v>0</v>
@@ -5365,106 +5365,106 @@
         <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.001145257075873047</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.03701863200230176</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0.009966178733259235</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0</v>
+        <v>-0.01582650519299933</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.01361136661509462</v>
+        <v>0.02080704078435784</v>
       </c>
       <c r="EB9" t="n">
-        <v>0</v>
+        <v>0.03469767167618117</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.001572749171454036</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
         <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0.09750552378968844</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.0762907810176289</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.0006240090984189599</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0</v>
+        <v>0.03275148298971785</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.01594165044778259</v>
+        <v>0.05245926360818354</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>0.01751778003416754</v>
       </c>
       <c r="EL9" t="n">
-        <v>-0.03537349796248068</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0.02113096446868959</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.05635133774628693</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.01220421936997676</v>
+        <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>0</v>
+        <v>0.02473642064280961</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.03119021146244995</v>
+        <v>0.01348342162660755</v>
       </c>
       <c r="ET9" t="n">
-        <v>-0</v>
+        <v>0.03290528997694995</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.01995437282835643</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0.05440314423897942</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.05899816198360345</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.01230826905838736</v>
+        <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0</v>
+        <v>0.01352119096938438</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.005554238254650693</v>
+        <v>0.004753226497370896</v>
       </c>
       <c r="FC9" t="n">
-        <v>-0</v>
+        <v>0.03145827143646546</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0.00198730604069987</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
         <v>0</v>
@@ -5473,135 +5473,135 @@
         <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.06484005892152689</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0.03097377320343571</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.03158233817247439</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0</v>
+        <v>0.0362130091591101</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.03478277780905455</v>
+        <v>0.009190056019668423</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0</v>
+        <v>-0.01099178370024969</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.01677990669754538</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.003613713390352829</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.004925342165696881</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.00761703858214632</v>
+        <v>0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0</v>
+        <v>0.009754397028229767</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.01197320301105055</v>
+        <v>-0.0319724870451904</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>0.01902404609222003</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.007501369127465229</v>
+        <v>0</v>
       </c>
       <c r="FW9" t="n">
         <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.04671582611519336</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>0.01709206540651812</v>
       </c>
       <c r="GA9" t="n">
-        <v>-0.01601460524262713</v>
+        <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>-0.05282979881343404</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0.03038564527008909</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.02760960709381695</v>
+        <v>0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.158763766630605</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.2375549490567123</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.07163675892320907</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.05058637479232389</v>
+        <v>-0.01925165910869601</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02640841164680703</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1567826877291542</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.1863934418944772</v>
       </c>
       <c r="L10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-0.07482456409222045</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.08424478213274286</v>
+        <v>-0.02972661046220002</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.002080952237112011</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -5610,52 +5610,52 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.005195337109304783</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.06743187703244223</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0</v>
+        <v>0.01319258291935494</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.04251329877450216</v>
+        <v>0.0738339722057602</v>
       </c>
       <c r="X10" t="n">
         <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.05246190157623751</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA10" t="n">
         <v>-0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.02330174685259096</v>
+        <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.05845901465798675</v>
       </c>
       <c r="AD10" t="n">
         <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>-0.01969840305982016</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.009068121684034746</v>
+        <v>-0.01722052389682318</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.03858531667550177</v>
+        <v>-0</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
@@ -5664,160 +5664,160 @@
         <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.03590100056633737</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>-0.01731976884951594</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>-0.05694668517625593</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.007518383921218908</v>
+        <v>-0.04653137091004816</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.01070710301846422</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.1096221501983001</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.2243260286965259</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0</v>
+        <v>0.02318118332061579</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.005001828653860735</v>
+        <v>0.1025279677833229</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.029860928207587</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
         <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.03946553519012287</v>
+        <v>-0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.02993841906775955</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>-0.09923443314862934</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.02901803607449455</v>
+        <v>-0.06293298310761275</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.01574709355808559</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0.03202980218657464</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.0496643369697654</v>
       </c>
       <c r="BN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>0.03138441799034126</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.04541188396526818</v>
+        <v>0.1490614150393862</v>
       </c>
       <c r="BQ10" t="n">
         <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.01037693615391438</v>
+        <v>0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
         <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.07203970696985368</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.09679724515103988</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0</v>
+        <v>0.03040308348578757</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.01024386657114037</v>
+        <v>0.07347792370648491</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.01141985088942415</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
         <v>-0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>-0.04744664753468839</v>
+        <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.05949784281672935</v>
       </c>
       <c r="CF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0</v>
+        <v>-0.0003030521941976983</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.01597279881865587</v>
+        <v>-0.008272652267834048</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0.01215978490011627</v>
+        <v>0</v>
       </c>
       <c r="CK10" t="n">
         <v>0</v>
@@ -5826,52 +5826,52 @@
         <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0.005834795214643811</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>-0.00647385925864961</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0</v>
+        <v>-0.03811525444324815</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.01667281925034709</v>
+        <v>-0.05392370130594729</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0.01286051245601797</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0.04295024236425179</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.046162031981967</v>
       </c>
       <c r="CX10" t="n">
         <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0</v>
+        <v>0.0143452144869735</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.004357911684875983</v>
+        <v>-0.004858823721089496</v>
       </c>
       <c r="DA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0.005975023871610943</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
         <v>-0</v>
@@ -5880,133 +5880,133 @@
         <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0.003129577339572263</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.03118906382127288</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>0.01792964553151672</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.0005900455228954618</v>
+        <v>0.01313078210774799</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0.0130739533355506</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.01398223573089654</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.02786180268549819</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0</v>
+        <v>0.05635164862323917</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.02246321138102913</v>
+        <v>-0.01748202857764404</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.0311940507799113</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0.00854517284701382</v>
+        <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.03959586839725406</v>
       </c>
       <c r="DY10" t="n">
         <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>-0</v>
+        <v>-0.002363252370538335</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.02087853167295129</v>
+        <v>0.01487609660832076</v>
       </c>
       <c r="EB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.0003180158498161462</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
         <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0.07430086409945909</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.06099423501286922</v>
       </c>
       <c r="EH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0</v>
+        <v>0.02404440214188631</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.007139331748276351</v>
+        <v>0.04984714770632032</v>
       </c>
       <c r="EK10" t="n">
         <v>0</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0.02446070501709096</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
         <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0.01272203969715289</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.04442506737572906</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>0.01197678256792502</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.04693793226853791</v>
+        <v>0.03209548342385718</v>
       </c>
       <c r="ET10" t="n">
         <v>0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.007322734236704633</v>
+        <v>0</v>
       </c>
       <c r="EV10" t="n">
         <v>0</v>
@@ -6015,135 +6015,135 @@
         <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>-0.04058962324737646</v>
+        <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.0471441917167273</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0</v>
+        <v>-0.004511494091944238</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.002359977374135079</v>
+        <v>0.007837215839428587</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0.006148305458007625</v>
+        <v>0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF10" t="n">
         <v>-0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.04648517058165462</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.03391642873225893</v>
       </c>
       <c r="FI10" t="n">
         <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0</v>
+        <v>0.009748860922205853</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.03550856409898313</v>
+        <v>0.04003038956592191</v>
       </c>
       <c r="FL10" t="n">
         <v>-0</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.009362914171229968</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
         <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.0008801204349884548</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.001325058454232322</v>
       </c>
       <c r="FR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0</v>
+        <v>0.003346667008543039</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.000960047010337717</v>
+        <v>-0.005775166050470295</v>
       </c>
       <c r="FU10" t="n">
         <v>-0</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.00487335470883866</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.02645989485238337</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>0.02257652514041972</v>
       </c>
       <c r="GA10" t="n">
         <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0</v>
+        <v>-0.085187614260617</v>
       </c>
       <c r="GC10" t="n">
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.01817984069648759</v>
+        <v>0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2743351612003653</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0.3270061975876245</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1722834277322723</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0830273395223938</v>
+        <v>-0.08896715240750655</v>
       </c>
       <c r="F11" t="n">
-        <v>-0</v>
+        <v>-0.2158640818302616</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H11" t="n">
         <v>-0</v>
@@ -6152,25 +6152,25 @@
         <v>-0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3123886613294812</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0</v>
+        <v>0.3103632988364848</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.2028504412608379</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.06154519083614748</v>
+        <v>-0.02850021387719847</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.2229273735923359</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q11" t="n">
         <v>-0</v>
@@ -6179,106 +6179,106 @@
         <v>-0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01982217244344665</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0</v>
+        <v>0.03962797669571628</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.05349949482776611</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.141525988574594</v>
+        <v>-0.02706734574189182</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-0.01149821315342154</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.009401637927250316</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0</v>
+        <v>0.007460433677973328</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0163349773060329</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.08473011647486303</v>
+        <v>0.03104874100264686</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0</v>
+        <v>0.007016606274025094</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.06928209158320095</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.04973740039457255</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.02447462169578951</v>
+        <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.03635074522202733</v>
+        <v>-0.003414382254529652</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.07427894615197138</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.1551787875966496</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.2473136761282198</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0.09443611613695466</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
         <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.01448122386578444</v>
+        <v>-0.02703313644466197</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.0856595152129732</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA11" t="n">
         <v>-0</v>
@@ -6287,22 +6287,22 @@
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.04311963505448733</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.07255580731143055</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0.05065280753309718</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.1162904307246185</v>
+        <v>-0.06576769046280416</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.08846981214792121</v>
       </c>
       <c r="BI11" t="n">
         <v>0</v>
@@ -6314,49 +6314,49 @@
         <v>-0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0.01056553758589381</v>
+        <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>0.06227753872661084</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.06197346443586257</v>
+        <v>-0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.109428956339794</v>
+        <v>0.01810381293350538</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0</v>
+        <v>0.01864966166978327</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.1623375997075798</v>
+        <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.1326663733927211</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0.05903280029843313</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.001806082735576297</v>
+        <v>-0.04414900240911659</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0</v>
+        <v>-0.04832743820775708</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
@@ -6365,28 +6365,28 @@
         <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0.07456666483562788</v>
+        <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0.06799653321921585</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.03906607941847098</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.0001556483874987972</v>
+        <v>-0.007754356771684821</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.04472624179740071</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
@@ -6395,52 +6395,52 @@
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0.01188831767651099</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>-0.003106679741743236</v>
       </c>
       <c r="CO11" t="n">
-        <v>-0.01379278461122593</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
         <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.03861415820980282</v>
+        <v>-0.02338628604142299</v>
       </c>
       <c r="CR11" t="n">
-        <v>-0</v>
+        <v>-0.07379886511405619</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
         <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0.06890910416946114</v>
+        <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>-0.06107179913725279</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.03941287369538526</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.03268682274676578</v>
+        <v>-0.007787277786378805</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0</v>
+        <v>0.04711530222866236</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
         <v>-0</v>
@@ -6449,49 +6449,49 @@
         <v>-0</v>
       </c>
       <c r="DE11" t="n">
-        <v>-0.01869597742953177</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0.05243375882188207</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.05253756466597712</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.003019551053060678</v>
+        <v>0.06343444896983677</v>
       </c>
       <c r="DJ11" t="n">
-        <v>-0</v>
+        <v>0.05127708252545429</v>
       </c>
       <c r="DK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL11" t="n">
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.01025480177744868</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>-0.02053390920616312</v>
       </c>
       <c r="DP11" t="n">
-        <v>-0.02772956758721311</v>
+        <v>0</v>
       </c>
       <c r="DQ11" t="n">
         <v>0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.04079551157545384</v>
+        <v>0.02847861098977629</v>
       </c>
       <c r="DS11" t="n">
-        <v>-0</v>
+        <v>0.01410245095436079</v>
       </c>
       <c r="DT11" t="n">
         <v>0</v>
@@ -6500,25 +6500,25 @@
         <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0.008042260781626061</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>-0</v>
+        <v>-0.06072310049753631</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0.010996525862563</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
         <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.02856629007088113</v>
+        <v>0.01827710642040244</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0</v>
+        <v>0.03025763699963034</v>
       </c>
       <c r="EC11" t="n">
         <v>-0</v>
@@ -6527,52 +6527,52 @@
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0.1194454666793912</v>
+        <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0.0748881364524792</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.04990945796633737</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.007017859015404727</v>
+        <v>0.03065247630772401</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>0.03353200560139591</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0.0426822171381867</v>
+        <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>-0.04691657753268808</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0.02461185202201862</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>-0.01243122435417958</v>
+        <v>-0.04136522695662299</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.007335051385062643</v>
       </c>
       <c r="EU11" t="n">
         <v>-0</v>
@@ -6581,28 +6581,28 @@
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0.07010321108323107</v>
+        <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0.06340822179503749</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.03533596782468798</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.02399900022544259</v>
+        <v>-0.003152470826970344</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0</v>
+        <v>0.04824617278321801</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
         <v>0</v>
@@ -6611,22 +6611,22 @@
         <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.0545318774606261</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0</v>
+        <v>-0.0293547223353519</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.05758164544718528</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
         <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.04598711105819172</v>
+        <v>0.005373695126452929</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.04135195473229911</v>
       </c>
       <c r="FM11" t="n">
         <v>0</v>
@@ -6638,52 +6638,52 @@
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.0007392634337846675</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>-0.001427673693359327</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.03413043289851773</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
         <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.001866103395368181</v>
+        <v>-0.002836561464883065</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.04859032408504889</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.03407953568571535</v>
+        <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0</v>
+        <v>0.009923257485090618</v>
       </c>
       <c r="GA11" t="n">
-        <v>-0.03529226208014862</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
         <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.05077214274318714</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
         <v>-0</v>
@@ -6694,160 +6694,160 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3432705801241963</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.5792437066328294</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1995697307488851</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04746945770183827</v>
+        <v>-0.1274810186006819</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>-0.5091105243607013</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
         <v>-0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3680534974942039</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0.5760069712492182</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.2438296823929931</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1066370326587334</v>
+        <v>-0.05813319017185963</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>-0.5537183048372705</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
         <v>-0</v>
       </c>
       <c r="R12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01953332592551394</v>
+        <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>0.04755236829990615</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.06072707516135325</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.1186599312604206</v>
+        <v>-0.110654745010335</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0.02565384337818499</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.008046303610733564</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>-0.0275390229202471</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01465767329048866</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.06238153743155893</v>
+        <v>-0.0215953269672738</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>-0.04212379964103503</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.06991864213980649</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.09769455732862328</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0.02198120773098822</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.04682238954549426</v>
+        <v>0.0006567358219328438</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>-0.09125932246545443</v>
       </c>
       <c r="AQ12" t="n">
         <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.1822182777616158</v>
+        <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.4681216858609668</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.1011494489645658</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.03577279064155126</v>
+        <v>-0.07547865179868263</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0.2411337016768416</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
         <v>-0</v>
@@ -6856,76 +6856,76 @@
         <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.06819528155055325</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.1256404465667237</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.07291167116346839</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
         <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.1033345082392063</v>
+        <v>-0.1561352566964735</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>-0.2061257706689008</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0.01510404157849653</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.1601394364002145</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.05968782220914527</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.1246168946854361</v>
+        <v>-0.001140776253103799</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0</v>
+        <v>0.01590004500465311</v>
       </c>
       <c r="BR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS12" t="n">
         <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.1670769626240724</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.2485805446403976</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0.05527499577761846</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
         <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.0003417404933257766</v>
+        <v>-0.07451044470466224</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-0</v>
+        <v>-0.1461459617618215</v>
       </c>
       <c r="CA12" t="n">
         <v>-0</v>
@@ -6934,25 +6934,25 @@
         <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0.08408179545293328</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.09586491076524317</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.04528803147782855</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.008067230296238207</v>
+        <v>-0.006446215008329582</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>0.1165299558341483</v>
       </c>
       <c r="CJ12" t="n">
         <v>-0</v>
@@ -6964,49 +6964,49 @@
         <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0.01195862728725274</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.003115304557728661</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0.009341246037376138</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
         <v>0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.06227205865363874</v>
+        <v>0.01787048106919314</v>
       </c>
       <c r="CR12" t="n">
-        <v>-0</v>
+        <v>-0.02395170569775671</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
         <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0.07375890007312084</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.07769714451202178</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.04942277710416278</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.02496777127880065</v>
+        <v>-0.005546675415865648</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0</v>
+        <v>0.121821495728354</v>
       </c>
       <c r="DB12" t="n">
         <v>0</v>
@@ -7018,22 +7018,22 @@
         <v>-0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0.03110853086332568</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.04474311101682561</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.03087504818213558</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.01991176419739403</v>
+        <v>0.05347417951927155</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>-0.001451015452034701</v>
       </c>
       <c r="DK12" t="n">
         <v>0</v>
@@ -7042,106 +7042,106 @@
         <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.01347037469536487</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>0.003472330483317901</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.006629288999435296</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.0204641291820321</v>
+        <v>0.03362394520549131</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0</v>
+        <v>-0.007595696074924218</v>
       </c>
       <c r="DT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW12" t="n">
-        <v>-0.02331832274540261</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.06633790709106792</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0.02761215556777707</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.01507843382952341</v>
+        <v>0.02092571729254978</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0</v>
+        <v>0.0604119105792296</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE12" t="n">
         <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0.1312784131694199</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.108232070485527</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.04873942953980276</v>
+        <v>0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.005920213074116993</v>
+        <v>0.02331439806358535</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>0.1265440928468862</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0.05208850414602709</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0.03263884978846953</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.04443915355183629</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES12" t="n">
-        <v>-0.007238827189374417</v>
+        <v>-0.0146199236652245</v>
       </c>
       <c r="ET12" t="n">
-        <v>-0</v>
+        <v>0.07942412872194721</v>
       </c>
       <c r="EU12" t="n">
         <v>-0</v>
@@ -7150,25 +7150,25 @@
         <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0.07700986836181679</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.07440339027998528</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.04440346416726845</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.01233321254569748</v>
+        <v>0.005603887711857129</v>
       </c>
       <c r="FC12" t="n">
-        <v>-0</v>
+        <v>0.1105132503528639</v>
       </c>
       <c r="FD12" t="n">
         <v>-0</v>
@@ -7180,67 +7180,67 @@
         <v>0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.03662005713371608</v>
+        <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>-0.003945683446421438</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.05444875109992777</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
         <v>-0</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.02781312647186732</v>
+        <v>-0.0100714325585216</v>
       </c>
       <c r="FL12" t="n">
-        <v>0</v>
+        <v>0.05596894958747622</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>-0.0004394672438965375</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0</v>
+        <v>0.005437178968010783</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.04157720409960969</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
         <v>-0</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.006090706084781159</v>
+        <v>-0.009291071496026496</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>0.03707465793457311</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.04816158479138889</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>0.05130643391850202</v>
       </c>
       <c r="GA12" t="n">
-        <v>-0.02819974316699008</v>
+        <v>-0</v>
       </c>
       <c r="GB12" t="n">
         <v>0</v>
@@ -7249,10 +7249,10 @@
         <v>0</v>
       </c>
       <c r="GD12" t="n">
-        <v>-0</v>
+        <v>-0.05910585980061403</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF12" t="n">
         <v>-0</v>
@@ -7263,10 +7263,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -7290,10 +7290,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -7317,10 +7317,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -7344,10 +7344,10 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -7371,10 +7371,10 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -7398,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
@@ -7425,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
@@ -7452,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
@@ -7479,10 +7479,10 @@
         <v>0</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
@@ -7506,10 +7506,10 @@
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF13" t="n">
         <v>0</v>
@@ -7533,10 +7533,10 @@
         <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
@@ -7587,10 +7587,10 @@
         <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG13" t="n">
         <v>0</v>
@@ -7614,10 +7614,10 @@
         <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
@@ -7641,10 +7641,10 @@
         <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
@@ -7668,10 +7668,10 @@
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH13" t="n">
         <v>0</v>
@@ -7695,10 +7695,10 @@
         <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
@@ -7722,10 +7722,10 @@
         <v>0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
@@ -7832,10 +7832,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -7859,10 +7859,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -7940,10 +7940,10 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -7967,10 +7967,10 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
@@ -8048,10 +8048,10 @@
         <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
@@ -8102,10 +8102,10 @@
         <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
@@ -8156,10 +8156,10 @@
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
@@ -8183,10 +8183,10 @@
         <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
@@ -8210,10 +8210,10 @@
         <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
@@ -8237,10 +8237,10 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
@@ -8264,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
@@ -8401,22 +8401,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2372067905722254</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0.1544188935148341</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.05649817277604919</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04376386914190324</v>
+        <v>-0.07434624519471678</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.07191094627322574</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -8428,133 +8428,133 @@
         <v>-0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2285350929358212</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.1313128974087503</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.07705858870862499</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.02785376633322195</v>
+        <v>-0.05300828472760943</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>-0.07991690897304321</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>-0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.008076927277695458</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>0.01285498906148165</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.02139352973392604</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.0416184202250104</v>
+        <v>-0.009143915894461702</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.008585893434490358</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01196776319802</v>
+        <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>-0.00708099261352923</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.008419700945556411</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
         <v>-0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.02015638592212684</v>
+        <v>0.01095058767563661</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>0.008891241431807639</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.03213899457917014</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.009017842687066626</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.011279346123311</v>
+        <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.01701411550903637</v>
+        <v>-0.008681091507523003</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>-0.01371395358608961</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.1110630415755762</v>
+        <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.09654125682359209</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0.03933486583991688</v>
+        <v>-0</v>
       </c>
       <c r="AW15" t="n">
         <v>-0</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.001988382534865602</v>
+        <v>-0.02558823624540049</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>-0.01930057289415121</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA15" t="n">
         <v>-0</v>
@@ -8563,22 +8563,22 @@
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.03166154688924202</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>0.0302820312550028</v>
       </c>
       <c r="BE15" t="n">
-        <v>-0.01303338815393028</v>
+        <v>0</v>
       </c>
       <c r="BF15" t="n">
         <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.03901994290312112</v>
+        <v>-0.04866486776021819</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0</v>
+        <v>-0.0543366550675645</v>
       </c>
       <c r="BI15" t="n">
         <v>0</v>
@@ -8587,52 +8587,52 @@
         <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0.01479182588890099</v>
+        <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>0.03448809281252849</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.01716447531573268</v>
+        <v>-0</v>
       </c>
       <c r="BO15" t="n">
         <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.05390098365347353</v>
+        <v>0.01721900225294691</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0.01589760666920734</v>
       </c>
       <c r="BR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT15" t="n">
         <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.09191544202297566</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>0.04605661846881794</v>
       </c>
       <c r="BW15" t="n">
-        <v>-0.03037545434335139</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
         <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.01144826724216514</v>
+        <v>-0.01045136467074858</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0</v>
+        <v>-0.01144505830400866</v>
       </c>
       <c r="CA15" t="n">
         <v>-0</v>
@@ -8644,52 +8644,52 @@
         <v>-0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0.05336926999235288</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0.02315840521840748</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.01750476199619955</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.0004949677077865515</v>
+        <v>0.006584241803874971</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>0.01672923858127688</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL15" t="n">
         <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0.01257068247952118</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>-0</v>
+        <v>0.001485202031397698</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.007486077371770308</v>
+        <v>-0</v>
       </c>
       <c r="CP15" t="n">
         <v>0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.02979357378408096</v>
+        <v>-0.0073279866417078</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0</v>
+        <v>-0.01263667932660277</v>
       </c>
       <c r="CS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT15" t="n">
         <v>-0</v>
@@ -8698,103 +8698,103 @@
         <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>-0.04915577856294297</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>-0.01765724039905513</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.01763497659243082</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.01451871412036288</v>
+        <v>0.005379815246833458</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0</v>
+        <v>0.01733536584598776</v>
       </c>
       <c r="DB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0.03046954208076598</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0.0301532257095577</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.02395270548124817</v>
+        <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.02232611812485087</v>
+        <v>0.04821482242880116</v>
       </c>
       <c r="DJ15" t="n">
-        <v>-0</v>
+        <v>0.01088256427121481</v>
       </c>
       <c r="DK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.01041369444152327</v>
+        <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0.005855340341051488</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.006712875401953955</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
         <v>0</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.01147401446399143</v>
+        <v>0.02068669027473315</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>-0.007959741920477664</v>
       </c>
       <c r="DT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU15" t="n">
         <v>0</v>
       </c>
       <c r="DV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0.01769638395876147</v>
+        <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>-0.02656132921347498</v>
       </c>
       <c r="DY15" t="n">
-        <v>-0.008832984648837453</v>
+        <v>0</v>
       </c>
       <c r="DZ15" t="n">
         <v>0</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.003261319687714944</v>
+        <v>0.01415902346671893</v>
       </c>
       <c r="EB15" t="n">
-        <v>-0</v>
+        <v>0.01832937144328398</v>
       </c>
       <c r="EC15" t="n">
         <v>-0</v>
@@ -8806,49 +8806,49 @@
         <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0.07599519880416251</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0.02815144169986555</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.01396964890110287</v>
+        <v>-0</v>
       </c>
       <c r="EI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.007878307470389435</v>
+        <v>0.006443556042594025</v>
       </c>
       <c r="EK15" t="n">
-        <v>0</v>
+        <v>0.01244994054135613</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN15" t="n">
         <v>-0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0.03141447554223713</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0.009990529301953644</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.03442685173983729</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
         <v>0</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.0001716064343023401</v>
+        <v>0.002515272087712165</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>-0.009720591527442599</v>
       </c>
       <c r="EU15" t="n">
         <v>-0</v>
@@ -8857,106 +8857,106 @@
         <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0.04800117531358204</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0.01816137902611428</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.01701960867716534</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
         <v>0</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.008625058418928279</v>
+        <v>0.008609350245061197</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0</v>
+        <v>0.0205748469995555</v>
       </c>
       <c r="FD15" t="n">
         <v>-0</v>
       </c>
       <c r="FE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF15" t="n">
         <v>0</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.03141054375224894</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>-0.01363540422291733</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.01186279643219771</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
         <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.02092363195478575</v>
+        <v>0.01161635186728579</v>
       </c>
       <c r="FL15" t="n">
-        <v>0</v>
+        <v>0.01895218087121359</v>
       </c>
       <c r="FM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.0002284082558285137</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
+        <v>6.383140881813266e-05</v>
       </c>
       <c r="FR15" t="n">
-        <v>-0.0002682986954523912</v>
+        <v>-0</v>
       </c>
       <c r="FS15" t="n">
         <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.0005219322587891656</v>
+        <v>-0.001260441709090497</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>0.01957513267543856</v>
       </c>
       <c r="FV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
         <v>0</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.01566654859964011</v>
+        <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>0.003079416305427231</v>
       </c>
       <c r="GA15" t="n">
-        <v>-0.01040555782243651</v>
+        <v>-0</v>
       </c>
       <c r="GB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC15" t="n">
         <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0</v>
+        <v>-0.0048316269926084</v>
       </c>
       <c r="GE15" t="n">
         <v>0</v>
@@ -8965,7 +8965,7 @@
         <v>-0</v>
       </c>
       <c r="GG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
